--- a/汽柴煤油2.0/data_input/纯苯-EB.xlsx
+++ b/汽柴煤油2.0/data_input/纯苯-EB.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3432"/>
+  <dimension ref="A1:E3434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47890,13 +47890,47 @@
         <v>3095.25</v>
       </c>
       <c r="C3432" t="n">
-        <v>-7.2234</v>
+        <v>-3.5906</v>
       </c>
       <c r="D3432" t="n">
-        <v>1619.51</v>
+        <v>1649.5996</v>
       </c>
       <c r="E3432" t="n">
-        <v>-1468.5166</v>
+        <v>-1442.0598</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>1.7827</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>1635.0559</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>-1396.7268</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>3007.25</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>10.5705</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>1658.5813</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>-1359.2392</v>
       </c>
     </row>
   </sheetData>
